--- a/database/industries/dode/shedoos/product/quarterly_seprated.xlsx
+++ b/database/industries/dode/shedoos/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shedoos\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D7C469-0D52-4F7B-A483-0DC7285C3566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A42D5D-9743-44C1-92F3-4577AA38B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -651,16 +666,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I95"/>
+  <dimension ref="B1:N95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -669,8 +684,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,8 +701,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -693,8 +718,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -703,8 +733,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -715,8 +750,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -727,8 +767,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,8 +782,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,8 +809,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -769,10 +834,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -781,104 +851,169 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>7593121</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5508751</v>
+      </c>
+      <c r="G11" s="11">
+        <v>24937672</v>
+      </c>
+      <c r="H11" s="11">
+        <v>7235000</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13">
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="13">
+        <v>7235000</v>
+      </c>
+      <c r="I12" s="13">
+        <v>15140357</v>
+      </c>
+      <c r="J12" s="13">
         <v>8444</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>7275</v>
+      </c>
+      <c r="L13" s="11">
         <v>6943</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>6202</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>7389</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
+        <v>7593121</v>
+      </c>
+      <c r="F14" s="15">
+        <v>5508751</v>
+      </c>
+      <c r="G14" s="15">
+        <v>24937672</v>
+      </c>
+      <c r="H14" s="15">
+        <v>14470000</v>
+      </c>
+      <c r="I14" s="15">
+        <v>15140357</v>
+      </c>
+      <c r="J14" s="15">
         <v>8444</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="K14" s="15">
+        <v>7275</v>
+      </c>
+      <c r="L14" s="15">
         <v>6943</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>6202</v>
       </c>
-      <c r="I14" s="15">
+      <c r="N14" s="15">
         <v>7389</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -887,104 +1022,169 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <v>136070</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1281280</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1826543</v>
+      </c>
+      <c r="H16" s="11">
+        <v>314380</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="E17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="13">
+        <v>314380</v>
+      </c>
+      <c r="I17" s="13">
+        <v>917456</v>
+      </c>
+      <c r="J17" s="13">
         <v>299</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11">
+        <v>18</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11">
+        <v>757</v>
+      </c>
+      <c r="L18" s="11">
         <v>1063</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>375</v>
       </c>
-      <c r="I18" s="11">
+      <c r="N18" s="11">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
+        <v>136070</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1281280</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1826543</v>
+      </c>
+      <c r="H19" s="15">
+        <v>628760</v>
+      </c>
+      <c r="I19" s="15">
+        <v>917456</v>
+      </c>
+      <c r="J19" s="15">
         <v>299</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="K19" s="15">
+        <v>757</v>
+      </c>
+      <c r="L19" s="15">
         <v>1063</v>
       </c>
-      <c r="H19" s="15">
+      <c r="M19" s="15">
         <v>375</v>
       </c>
-      <c r="I19" s="15">
+      <c r="N19" s="15">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -993,10 +1193,15 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1015,76 +1220,136 @@
       <c r="I21" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>13</v>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>13</v>
+      <c r="F23" s="19">
+        <v>0</v>
       </c>
       <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="19">
-        <v>0</v>
+      <c r="H23" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
+        <v>7729191</v>
+      </c>
+      <c r="F24" s="15">
+        <v>6790031</v>
+      </c>
+      <c r="G24" s="15">
+        <v>26764215</v>
+      </c>
+      <c r="H24" s="15">
+        <v>15098760</v>
+      </c>
+      <c r="I24" s="15">
+        <v>16057813</v>
+      </c>
+      <c r="J24" s="15">
         <v>8743</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="K24" s="15">
+        <v>8032</v>
+      </c>
+      <c r="L24" s="15">
         <v>8006</v>
       </c>
-      <c r="H24" s="15">
+      <c r="M24" s="15">
         <v>6577</v>
       </c>
-      <c r="I24" s="15">
+      <c r="N24" s="15">
         <v>7517</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1093,8 +1358,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1103,8 +1373,13 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1113,10 +1388,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1135,8 +1415,23 @@
       <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1145,10 +1440,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1157,104 +1457,169 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>13</v>
+      <c r="E31" s="11">
+        <v>792273</v>
+      </c>
+      <c r="F31" s="11">
+        <v>801081</v>
+      </c>
+      <c r="G31" s="11">
+        <v>934020</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1644257</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="13">
+      <c r="E32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1644257</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1908843</v>
+      </c>
+      <c r="J32" s="13">
         <v>2227316</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
+        <v>18</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="11">
+        <v>2061299</v>
+      </c>
+      <c r="L33" s="11">
         <v>2812452</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>2651833</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>2637750</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
+        <v>792273</v>
+      </c>
+      <c r="F34" s="15">
+        <v>801081</v>
+      </c>
+      <c r="G34" s="15">
+        <v>934020</v>
+      </c>
+      <c r="H34" s="15">
+        <v>3288514</v>
+      </c>
+      <c r="I34" s="15">
+        <v>1908843</v>
+      </c>
+      <c r="J34" s="15">
         <v>2227316</v>
       </c>
-      <c r="F34" s="15">
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
+      <c r="K34" s="15">
+        <v>2061299</v>
+      </c>
+      <c r="L34" s="15">
         <v>2812452</v>
       </c>
-      <c r="H34" s="15">
+      <c r="M34" s="15">
         <v>2651833</v>
       </c>
-      <c r="I34" s="15">
+      <c r="N34" s="15">
         <v>2637750</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1263,104 +1628,169 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11">
+        <v>13008</v>
+      </c>
+      <c r="F36" s="11">
+        <v>172874</v>
+      </c>
+      <c r="G36" s="11">
+        <v>85662</v>
+      </c>
+      <c r="H36" s="11">
+        <v>77180</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C37" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13">
+      <c r="E37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="13">
+        <v>77180</v>
+      </c>
+      <c r="I37" s="13">
+        <v>147717</v>
+      </c>
+      <c r="J37" s="13">
         <v>67928</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11">
+        <v>18</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11">
+        <v>175589</v>
+      </c>
+      <c r="L38" s="11">
         <v>325847</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>135308</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>37891</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>13008</v>
+      </c>
+      <c r="F39" s="15">
+        <v>172874</v>
+      </c>
+      <c r="G39" s="15">
+        <v>85662</v>
+      </c>
+      <c r="H39" s="15">
+        <v>154360</v>
+      </c>
+      <c r="I39" s="15">
+        <v>147717</v>
+      </c>
+      <c r="J39" s="15">
         <v>67928</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>175589</v>
+      </c>
+      <c r="L39" s="15">
         <v>325847</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>135308</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>37891</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -1369,10 +1799,15 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1391,78 +1826,138 @@
       <c r="I41" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
+        <v>0</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <v>0</v>
+      </c>
+      <c r="N41" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>13</v>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19">
         <v>0</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>13</v>
+      <c r="F43" s="19">
+        <v>0</v>
       </c>
       <c r="G43" s="19">
         <v>0</v>
       </c>
-      <c r="H43" s="19">
-        <v>0</v>
+      <c r="H43" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="19">
+        <v>0</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="19">
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <v>0</v>
+      </c>
+      <c r="N43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
+        <v>805281</v>
+      </c>
+      <c r="F44" s="15">
+        <v>973955</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1019682</v>
+      </c>
+      <c r="H44" s="15">
+        <v>3442874</v>
+      </c>
+      <c r="I44" s="15">
+        <v>2056560</v>
+      </c>
+      <c r="J44" s="15">
         <v>2295244</v>
       </c>
-      <c r="F44" s="15">
-        <v>0</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="K44" s="15">
+        <v>2236888</v>
+      </c>
+      <c r="L44" s="15">
         <v>3138299</v>
       </c>
-      <c r="H44" s="15">
+      <c r="M44" s="15">
         <v>2787141</v>
       </c>
-      <c r="I44" s="15">
+      <c r="N44" s="15">
         <v>2675641</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1471,8 +1966,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1481,8 +1981,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1491,10 +1996,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1513,8 +2023,23 @@
       <c r="I48" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1523,10 +2048,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1535,82 +2065,132 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>13</v>
+      <c r="E51" s="11">
+        <v>104341</v>
+      </c>
+      <c r="F51" s="11">
+        <v>145420</v>
+      </c>
+      <c r="G51" s="11">
+        <v>189600</v>
+      </c>
+      <c r="H51" s="11">
+        <v>227264</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="13">
+      <c r="E52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="13">
+        <v>227264</v>
+      </c>
+      <c r="I52" s="13">
+        <v>126076</v>
+      </c>
+      <c r="J52" s="13">
         <v>-147270</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="11">
+        <v>18</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="11">
         <v>254056729</v>
       </c>
-      <c r="G53" s="11">
+      <c r="L53" s="11">
         <v>405077344</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>427577072</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>356983354</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1619,80 +2199,130 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11">
+        <v>95598</v>
+      </c>
+      <c r="F55" s="11">
+        <v>134923</v>
+      </c>
+      <c r="G55" s="11">
+        <v>208621</v>
+      </c>
+      <c r="H55" s="11">
+        <v>245499</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C56" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13">
+      <c r="E56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="13">
+        <v>245499</v>
+      </c>
+      <c r="I56" s="13">
+        <v>161007</v>
+      </c>
+      <c r="J56" s="13">
         <v>-74112</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="11">
+        <v>18</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11">
         <v>237291793</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>306535278</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>360821333</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>296023438</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1701,8 +2331,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1711,8 +2346,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1721,10 +2361,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1743,8 +2388,23 @@
       <c r="I61" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1753,10 +2413,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1765,104 +2430,169 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>13</v>
+      <c r="E64" s="11">
+        <v>-572811</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-747442</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-532770</v>
+      </c>
+      <c r="H64" s="11">
+        <v>-1216750</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13">
+      <c r="E65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="13">
+        <v>-1216750</v>
+      </c>
+      <c r="I65" s="13">
+        <v>-1429020</v>
+      </c>
+      <c r="J65" s="13">
         <v>-1767330</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="11">
+        <v>18</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11">
         <v>-1811460</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>-2161333</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>-2059409</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>-2249416</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
+        <v>-572811</v>
+      </c>
+      <c r="F67" s="15">
+        <v>-747442</v>
+      </c>
+      <c r="G67" s="15">
+        <v>-532770</v>
+      </c>
+      <c r="H67" s="15">
+        <v>-2433500</v>
+      </c>
+      <c r="I67" s="15">
+        <v>-1429020</v>
+      </c>
+      <c r="J67" s="15">
         <v>-1767330</v>
       </c>
-      <c r="F67" s="15">
+      <c r="K67" s="15">
         <v>-1811460</v>
       </c>
-      <c r="G67" s="15">
+      <c r="L67" s="15">
         <v>-2161333</v>
       </c>
-      <c r="H67" s="15">
+      <c r="M67" s="15">
         <v>-2059409</v>
       </c>
-      <c r="I67" s="15">
+      <c r="N67" s="15">
         <v>-2249416</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -1871,104 +2601,169 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11">
+        <v>-9336</v>
+      </c>
+      <c r="F69" s="11">
+        <v>9336</v>
+      </c>
+      <c r="G69" s="11">
+        <v>-197898</v>
+      </c>
+      <c r="H69" s="11">
+        <v>-49266</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C70" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13">
+      <c r="E70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="13">
+        <v>-49266</v>
+      </c>
+      <c r="I70" s="13">
+        <v>-119613</v>
+      </c>
+      <c r="J70" s="13">
         <v>-63391</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="11">
+        <v>18</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11">
         <v>-119841</v>
       </c>
-      <c r="G71" s="11">
+      <c r="L71" s="11">
         <v>-322958</v>
       </c>
-      <c r="H71" s="11">
+      <c r="M71" s="11">
         <v>-110759</v>
       </c>
-      <c r="I71" s="11">
+      <c r="N71" s="11">
         <v>98446</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
+        <v>-9336</v>
+      </c>
+      <c r="F72" s="15">
+        <v>9336</v>
+      </c>
+      <c r="G72" s="15">
+        <v>-197898</v>
+      </c>
+      <c r="H72" s="15">
+        <v>-98532</v>
+      </c>
+      <c r="I72" s="15">
+        <v>-119613</v>
+      </c>
+      <c r="J72" s="15">
         <v>-63391</v>
       </c>
-      <c r="F72" s="15">
+      <c r="K72" s="15">
         <v>-119841</v>
       </c>
-      <c r="G72" s="15">
+      <c r="L72" s="15">
         <v>-322958</v>
       </c>
-      <c r="H72" s="15">
+      <c r="M72" s="15">
         <v>-110759</v>
       </c>
-      <c r="I72" s="15">
+      <c r="N72" s="15">
         <v>98446</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -1977,10 +2772,15 @@
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -1999,78 +2799,138 @@
       <c r="I74" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="19">
+        <v>0</v>
+      </c>
+      <c r="K74" s="19">
+        <v>0</v>
+      </c>
+      <c r="L74" s="19">
+        <v>0</v>
+      </c>
+      <c r="M74" s="19">
+        <v>0</v>
+      </c>
+      <c r="N74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>13</v>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19">
         <v>0</v>
       </c>
-      <c r="F76" s="19" t="s">
-        <v>13</v>
+      <c r="F76" s="19">
+        <v>0</v>
       </c>
       <c r="G76" s="19">
         <v>0</v>
       </c>
-      <c r="H76" s="19">
-        <v>0</v>
+      <c r="H76" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I76" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="19">
+        <v>0</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="19">
+        <v>0</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0</v>
+      </c>
+      <c r="N76" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
+        <v>-582147</v>
+      </c>
+      <c r="F77" s="15">
+        <v>-738106</v>
+      </c>
+      <c r="G77" s="15">
+        <v>-730668</v>
+      </c>
+      <c r="H77" s="15">
+        <v>-2532032</v>
+      </c>
+      <c r="I77" s="15">
+        <v>-1548633</v>
+      </c>
+      <c r="J77" s="15">
         <v>-1830721</v>
       </c>
-      <c r="F77" s="15">
+      <c r="K77" s="15">
         <v>-1931301</v>
       </c>
-      <c r="G77" s="15">
+      <c r="L77" s="15">
         <v>-2484291</v>
       </c>
-      <c r="H77" s="15">
+      <c r="M77" s="15">
         <v>-2170168</v>
       </c>
-      <c r="I77" s="15">
+      <c r="N77" s="15">
         <v>-2150970</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2079,8 +2939,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2089,8 +2954,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2099,10 +2969,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2121,8 +2996,23 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2131,10 +3021,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -2143,104 +3038,169 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>13</v>
+      <c r="E84" s="11">
+        <v>219462</v>
+      </c>
+      <c r="F84" s="11">
+        <v>53639</v>
+      </c>
+      <c r="G84" s="11">
+        <v>401250</v>
+      </c>
+      <c r="H84" s="11">
+        <v>427507</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D85" s="13"/>
-      <c r="E85" s="13">
+      <c r="E85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="13">
+        <v>427507</v>
+      </c>
+      <c r="I85" s="13">
+        <v>479823</v>
+      </c>
+      <c r="J85" s="13">
         <v>459986</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="11">
+        <v>18</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="11">
         <v>249839</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>651119</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>592424</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>388334</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
+        <v>219462</v>
+      </c>
+      <c r="F87" s="15">
+        <v>53639</v>
+      </c>
+      <c r="G87" s="15">
+        <v>401250</v>
+      </c>
+      <c r="H87" s="15">
+        <v>855014</v>
+      </c>
+      <c r="I87" s="15">
+        <v>479823</v>
+      </c>
+      <c r="J87" s="15">
         <v>459986</v>
       </c>
-      <c r="F87" s="15">
+      <c r="K87" s="15">
         <v>249839</v>
       </c>
-      <c r="G87" s="15">
+      <c r="L87" s="15">
         <v>651119</v>
       </c>
-      <c r="H87" s="15">
+      <c r="M87" s="15">
         <v>592424</v>
       </c>
-      <c r="I87" s="15">
+      <c r="N87" s="15">
         <v>388334</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
@@ -2249,104 +3209,169 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11">
+        <v>3672</v>
+      </c>
+      <c r="F89" s="11">
+        <v>182210</v>
+      </c>
+      <c r="G89" s="11">
+        <v>-112236</v>
+      </c>
+      <c r="H89" s="11">
+        <v>27914</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="C90" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="13">
+      <c r="E90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="13">
+        <v>27914</v>
+      </c>
+      <c r="I90" s="13">
+        <v>28104</v>
+      </c>
+      <c r="J90" s="13">
         <v>4537</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="11">
+        <v>18</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="11">
         <v>55748</v>
       </c>
-      <c r="G91" s="11">
+      <c r="L91" s="11">
         <v>2889</v>
       </c>
-      <c r="H91" s="11">
+      <c r="M91" s="11">
         <v>24549</v>
       </c>
-      <c r="I91" s="11">
+      <c r="N91" s="11">
         <v>136337</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
+        <v>3672</v>
+      </c>
+      <c r="F92" s="15">
+        <v>182210</v>
+      </c>
+      <c r="G92" s="15">
+        <v>-112236</v>
+      </c>
+      <c r="H92" s="15">
+        <v>55828</v>
+      </c>
+      <c r="I92" s="15">
+        <v>28104</v>
+      </c>
+      <c r="J92" s="15">
         <v>4537</v>
       </c>
-      <c r="F92" s="15">
+      <c r="K92" s="15">
         <v>55748</v>
       </c>
-      <c r="G92" s="15">
+      <c r="L92" s="15">
         <v>2889</v>
       </c>
-      <c r="H92" s="15">
+      <c r="M92" s="15">
         <v>24549</v>
       </c>
-      <c r="I92" s="15">
+      <c r="N92" s="15">
         <v>136337</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -2355,10 +3380,15 @@
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
@@ -2377,26 +3407,56 @@
       <c r="I94" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="19">
+        <v>0</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+      <c r="L94" s="19">
+        <v>0</v>
+      </c>
+      <c r="M94" s="19">
+        <v>0</v>
+      </c>
+      <c r="N94" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>223134</v>
+      </c>
+      <c r="F95" s="15">
+        <v>235849</v>
+      </c>
+      <c r="G95" s="15">
+        <v>289014</v>
+      </c>
+      <c r="H95" s="15">
+        <v>910842</v>
+      </c>
+      <c r="I95" s="15">
+        <v>507927</v>
+      </c>
+      <c r="J95" s="15">
         <v>464523</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>305587</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>654008</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>616973</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>524671</v>
       </c>
     </row>

--- a/database/industries/dode/shedoos/product/quarterly_seprated.xlsx
+++ b/database/industries/dode/shedoos/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A42D5D-9743-44C1-92F3-4577AA38B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5A844-C025-48E7-BFC3-2F9E80DDA168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="56">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -670,12 +670,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -690,7 +690,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -739,7 +739,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -788,7 +788,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -825,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -840,7 +840,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -866,17 +866,17 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>7593121</v>
+        <v>5508751</v>
       </c>
       <c r="F11" s="11">
-        <v>5508751</v>
+        <v>24937672</v>
       </c>
       <c r="G11" s="11">
-        <v>24937672</v>
-      </c>
-      <c r="H11" s="11">
         <v>7235000</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>18</v>
       </c>
@@ -896,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -910,18 +910,18 @@
       <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>18</v>
+      <c r="G12" s="13">
+        <v>7235000</v>
       </c>
       <c r="H12" s="13">
-        <v>7235000</v>
+        <v>15140357</v>
       </c>
       <c r="I12" s="13">
-        <v>15140357</v>
-      </c>
-      <c r="J12" s="13">
         <v>8444</v>
       </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" s="13" t="s">
         <v>18</v>
       </c>
@@ -935,7 +935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -958,60 +958,60 @@
       <c r="I13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11">
+        <v>7275</v>
       </c>
       <c r="K13" s="11">
-        <v>7275</v>
+        <v>6943</v>
       </c>
       <c r="L13" s="11">
-        <v>6943</v>
+        <v>6202</v>
       </c>
       <c r="M13" s="11">
-        <v>6202</v>
+        <v>7389</v>
       </c>
       <c r="N13" s="11">
-        <v>7389</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6562</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>7593121</v>
+        <v>5508751</v>
       </c>
       <c r="F14" s="15">
-        <v>5508751</v>
+        <v>24937672</v>
       </c>
       <c r="G14" s="15">
-        <v>24937672</v>
+        <v>14470000</v>
       </c>
       <c r="H14" s="15">
-        <v>14470000</v>
+        <v>15140357</v>
       </c>
       <c r="I14" s="15">
-        <v>15140357</v>
+        <v>8444</v>
       </c>
       <c r="J14" s="15">
-        <v>8444</v>
+        <v>7275</v>
       </c>
       <c r="K14" s="15">
-        <v>7275</v>
+        <v>6943</v>
       </c>
       <c r="L14" s="15">
-        <v>6943</v>
+        <v>6202</v>
       </c>
       <c r="M14" s="15">
-        <v>6202</v>
+        <v>7389</v>
       </c>
       <c r="N14" s="15">
-        <v>7389</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6562</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
-        <v>136070</v>
+        <v>1281280</v>
       </c>
       <c r="F16" s="11">
-        <v>1281280</v>
+        <v>1826543</v>
       </c>
       <c r="G16" s="11">
-        <v>1826543</v>
-      </c>
-      <c r="H16" s="11">
         <v>314380</v>
       </c>
+      <c r="H16" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I16" s="11" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1081,18 +1081,18 @@
       <c r="F17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>18</v>
+      <c r="G17" s="13">
+        <v>314380</v>
       </c>
       <c r="H17" s="13">
-        <v>314380</v>
+        <v>917456</v>
       </c>
       <c r="I17" s="13">
-        <v>917456</v>
-      </c>
-      <c r="J17" s="13">
         <v>299</v>
       </c>
+      <c r="J17" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K17" s="13" t="s">
         <v>18</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
@@ -1129,60 +1129,60 @@
       <c r="I18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>18</v>
+      <c r="J18" s="11">
+        <v>757</v>
       </c>
       <c r="K18" s="11">
-        <v>757</v>
+        <v>1063</v>
       </c>
       <c r="L18" s="11">
-        <v>1063</v>
+        <v>375</v>
       </c>
       <c r="M18" s="11">
-        <v>375</v>
+        <v>128</v>
       </c>
       <c r="N18" s="11">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>136070</v>
+        <v>1281280</v>
       </c>
       <c r="F19" s="15">
-        <v>1281280</v>
+        <v>1826543</v>
       </c>
       <c r="G19" s="15">
-        <v>1826543</v>
+        <v>628760</v>
       </c>
       <c r="H19" s="15">
-        <v>628760</v>
+        <v>917456</v>
       </c>
       <c r="I19" s="15">
-        <v>917456</v>
+        <v>299</v>
       </c>
       <c r="J19" s="15">
-        <v>299</v>
+        <v>757</v>
       </c>
       <c r="K19" s="15">
-        <v>757</v>
+        <v>1063</v>
       </c>
       <c r="L19" s="15">
-        <v>1063</v>
+        <v>375</v>
       </c>
       <c r="M19" s="15">
-        <v>375</v>
+        <v>128</v>
       </c>
       <c r="N19" s="15">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1250,8 +1250,8 @@
       <c r="F22" s="15">
         <v>0</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
+      <c r="G22" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>18</v>
@@ -1275,7 +1275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>30</v>
       </c>
@@ -1287,20 +1287,20 @@
       <c r="F23" s="19">
         <v>0</v>
       </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>18</v>
+      <c r="G23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
       </c>
-      <c r="J23" s="19">
-        <v>0</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>18</v>
+      <c r="J23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0</v>
       </c>
       <c r="L23" s="19">
         <v>0</v>
@@ -1312,44 +1312,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>7729191</v>
+        <v>6790031</v>
       </c>
       <c r="F24" s="15">
-        <v>6790031</v>
+        <v>26764215</v>
       </c>
       <c r="G24" s="15">
-        <v>26764215</v>
+        <v>15098760</v>
       </c>
       <c r="H24" s="15">
-        <v>15098760</v>
+        <v>16057813</v>
       </c>
       <c r="I24" s="15">
-        <v>16057813</v>
+        <v>8743</v>
       </c>
       <c r="J24" s="15">
-        <v>8743</v>
+        <v>8032</v>
       </c>
       <c r="K24" s="15">
-        <v>8032</v>
+        <v>8006</v>
       </c>
       <c r="L24" s="15">
-        <v>8006</v>
+        <v>6577</v>
       </c>
       <c r="M24" s="15">
-        <v>6577</v>
+        <v>7517</v>
       </c>
       <c r="N24" s="15">
-        <v>7517</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6994</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1364,7 +1364,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1379,7 +1379,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1472,17 +1472,17 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>792273</v>
+        <v>801081</v>
       </c>
       <c r="F31" s="11">
-        <v>801081</v>
+        <v>934020</v>
       </c>
       <c r="G31" s="11">
-        <v>934020</v>
-      </c>
-      <c r="H31" s="11">
         <v>1644257</v>
       </c>
+      <c r="H31" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I31" s="11" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
@@ -1516,18 +1516,18 @@
       <c r="F32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>18</v>
+      <c r="G32" s="13">
+        <v>1644257</v>
       </c>
       <c r="H32" s="13">
-        <v>1644257</v>
+        <v>1908843</v>
       </c>
       <c r="I32" s="13">
-        <v>1908843</v>
-      </c>
-      <c r="J32" s="13">
         <v>2227316</v>
       </c>
+      <c r="J32" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K32" s="13" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>20</v>
       </c>
@@ -1564,60 +1564,60 @@
       <c r="I33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>18</v>
+      <c r="J33" s="11">
+        <v>2061299</v>
       </c>
       <c r="K33" s="11">
-        <v>2061299</v>
+        <v>2812452</v>
       </c>
       <c r="L33" s="11">
-        <v>2812452</v>
+        <v>2651833</v>
       </c>
       <c r="M33" s="11">
-        <v>2651833</v>
+        <v>2637750</v>
       </c>
       <c r="N33" s="11">
-        <v>2637750</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2283642</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>792273</v>
+        <v>801081</v>
       </c>
       <c r="F34" s="15">
-        <v>801081</v>
+        <v>934020</v>
       </c>
       <c r="G34" s="15">
-        <v>934020</v>
+        <v>3288514</v>
       </c>
       <c r="H34" s="15">
-        <v>3288514</v>
+        <v>1908843</v>
       </c>
       <c r="I34" s="15">
-        <v>1908843</v>
+        <v>2227316</v>
       </c>
       <c r="J34" s="15">
-        <v>2227316</v>
+        <v>2061299</v>
       </c>
       <c r="K34" s="15">
-        <v>2061299</v>
+        <v>2812452</v>
       </c>
       <c r="L34" s="15">
-        <v>2812452</v>
+        <v>2651833</v>
       </c>
       <c r="M34" s="15">
-        <v>2651833</v>
+        <v>2637750</v>
       </c>
       <c r="N34" s="15">
-        <v>2637750</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2283642</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>24</v>
       </c>
@@ -1643,17 +1643,17 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>13008</v>
+        <v>172874</v>
       </c>
       <c r="F36" s="11">
-        <v>172874</v>
+        <v>85662</v>
       </c>
       <c r="G36" s="11">
-        <v>85662</v>
-      </c>
-      <c r="H36" s="11">
         <v>77180</v>
       </c>
+      <c r="H36" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I36" s="11" t="s">
         <v>18</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
@@ -1687,18 +1687,18 @@
       <c r="F37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="13" t="s">
-        <v>18</v>
+      <c r="G37" s="13">
+        <v>77180</v>
       </c>
       <c r="H37" s="13">
-        <v>77180</v>
+        <v>147717</v>
       </c>
       <c r="I37" s="13">
-        <v>147717</v>
-      </c>
-      <c r="J37" s="13">
         <v>67928</v>
       </c>
+      <c r="J37" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K37" s="13" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
@@ -1735,60 +1735,60 @@
       <c r="I38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>18</v>
+      <c r="J38" s="11">
+        <v>175589</v>
       </c>
       <c r="K38" s="11">
-        <v>175589</v>
+        <v>325847</v>
       </c>
       <c r="L38" s="11">
-        <v>325847</v>
+        <v>135308</v>
       </c>
       <c r="M38" s="11">
-        <v>135308</v>
+        <v>37891</v>
       </c>
       <c r="N38" s="11">
-        <v>37891</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146832</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>13008</v>
+        <v>172874</v>
       </c>
       <c r="F39" s="15">
-        <v>172874</v>
+        <v>85662</v>
       </c>
       <c r="G39" s="15">
-        <v>85662</v>
+        <v>154360</v>
       </c>
       <c r="H39" s="15">
-        <v>154360</v>
+        <v>147717</v>
       </c>
       <c r="I39" s="15">
-        <v>147717</v>
+        <v>67928</v>
       </c>
       <c r="J39" s="15">
-        <v>67928</v>
+        <v>175589</v>
       </c>
       <c r="K39" s="15">
-        <v>175589</v>
+        <v>325847</v>
       </c>
       <c r="L39" s="15">
-        <v>325847</v>
+        <v>135308</v>
       </c>
       <c r="M39" s="15">
-        <v>135308</v>
+        <v>37891</v>
       </c>
       <c r="N39" s="15">
-        <v>37891</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146832</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>27</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>28</v>
       </c>
@@ -1856,8 +1856,8 @@
       <c r="F42" s="15">
         <v>0</v>
       </c>
-      <c r="G42" s="15">
-        <v>0</v>
+      <c r="G42" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>18</v>
@@ -1881,7 +1881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>30</v>
       </c>
@@ -1895,20 +1895,20 @@
       <c r="F43" s="19">
         <v>0</v>
       </c>
-      <c r="G43" s="19">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>18</v>
+      <c r="G43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="J43" s="19">
-        <v>0</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>18</v>
+      <c r="J43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="19">
+        <v>0</v>
       </c>
       <c r="L43" s="19">
         <v>0</v>
@@ -1920,44 +1920,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>805281</v>
+        <v>973955</v>
       </c>
       <c r="F44" s="15">
-        <v>973955</v>
+        <v>1019682</v>
       </c>
       <c r="G44" s="15">
-        <v>1019682</v>
+        <v>3442874</v>
       </c>
       <c r="H44" s="15">
-        <v>3442874</v>
+        <v>2056560</v>
       </c>
       <c r="I44" s="15">
-        <v>2056560</v>
+        <v>2295244</v>
       </c>
       <c r="J44" s="15">
-        <v>2295244</v>
+        <v>2236888</v>
       </c>
       <c r="K44" s="15">
-        <v>2236888</v>
+        <v>3138299</v>
       </c>
       <c r="L44" s="15">
-        <v>3138299</v>
+        <v>2787141</v>
       </c>
       <c r="M44" s="15">
-        <v>2787141</v>
+        <v>2675641</v>
       </c>
       <c r="N44" s="15">
-        <v>2675641</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2430474</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1972,7 +1972,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1987,7 +1987,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2002,7 +2002,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>37</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2054,7 +2054,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2080,17 +2080,17 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>104341</v>
+        <v>145420</v>
       </c>
       <c r="F51" s="11">
-        <v>145420</v>
+        <v>189600</v>
       </c>
       <c r="G51" s="11">
-        <v>189600</v>
-      </c>
-      <c r="H51" s="11">
         <v>227264</v>
       </c>
+      <c r="H51" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I51" s="11" t="s">
         <v>18</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>19</v>
       </c>
@@ -2124,18 +2124,18 @@
       <c r="F52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>18</v>
+      <c r="G52" s="13">
+        <v>227264</v>
       </c>
       <c r="H52" s="13">
-        <v>227264</v>
+        <v>126076</v>
       </c>
       <c r="I52" s="13">
-        <v>126076</v>
-      </c>
-      <c r="J52" s="13">
         <v>-147270</v>
       </c>
+      <c r="J52" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K52" s="13" t="s">
         <v>18</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
@@ -2172,23 +2172,23 @@
       <c r="I53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>18</v>
+      <c r="J53" s="11">
+        <v>254056729</v>
       </c>
       <c r="K53" s="11">
-        <v>254056729</v>
+        <v>405077344</v>
       </c>
       <c r="L53" s="11">
-        <v>405077344</v>
+        <v>427577072</v>
       </c>
       <c r="M53" s="11">
-        <v>427577072</v>
+        <v>356983354</v>
       </c>
       <c r="N53" s="11">
-        <v>356983354</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>348010058</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>41</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>24</v>
       </c>
@@ -2214,17 +2214,17 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>95598</v>
+        <v>134923</v>
       </c>
       <c r="F55" s="11">
-        <v>134923</v>
+        <v>208621</v>
       </c>
       <c r="G55" s="11">
-        <v>208621</v>
-      </c>
-      <c r="H55" s="11">
         <v>245499</v>
       </c>
+      <c r="H55" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I55" s="11" t="s">
         <v>18</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2258,18 +2258,18 @@
       <c r="F56" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>18</v>
+      <c r="G56" s="13">
+        <v>245499</v>
       </c>
       <c r="H56" s="13">
-        <v>245499</v>
+        <v>161007</v>
       </c>
       <c r="I56" s="13">
-        <v>161007</v>
-      </c>
-      <c r="J56" s="13">
         <v>-74112</v>
       </c>
+      <c r="J56" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K56" s="13" t="s">
         <v>18</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2306,23 +2306,23 @@
       <c r="I57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="11" t="s">
-        <v>18</v>
+      <c r="J57" s="11">
+        <v>237291793</v>
       </c>
       <c r="K57" s="11">
-        <v>237291793</v>
+        <v>306535278</v>
       </c>
       <c r="L57" s="11">
-        <v>306535278</v>
+        <v>360821333</v>
       </c>
       <c r="M57" s="11">
-        <v>360821333</v>
+        <v>296023438</v>
       </c>
       <c r="N57" s="11">
-        <v>296023438</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>339888889</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2337,7 +2337,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2352,7 +2352,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2367,7 +2367,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>42</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2419,7 +2419,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>43</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -2445,17 +2445,17 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>-572811</v>
+        <v>-747442</v>
       </c>
       <c r="F64" s="11">
-        <v>-747442</v>
+        <v>-532770</v>
       </c>
       <c r="G64" s="11">
-        <v>-532770</v>
-      </c>
-      <c r="H64" s="11">
         <v>-1216750</v>
       </c>
+      <c r="H64" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I64" s="11" t="s">
         <v>18</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>19</v>
       </c>
@@ -2489,18 +2489,18 @@
       <c r="F65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="13" t="s">
-        <v>18</v>
+      <c r="G65" s="13">
+        <v>-1216750</v>
       </c>
       <c r="H65" s="13">
-        <v>-1216750</v>
+        <v>-1429020</v>
       </c>
       <c r="I65" s="13">
-        <v>-1429020</v>
-      </c>
-      <c r="J65" s="13">
         <v>-1767330</v>
       </c>
+      <c r="J65" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K65" s="13" t="s">
         <v>18</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>20</v>
       </c>
@@ -2537,60 +2537,60 @@
       <c r="I66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J66" s="11" t="s">
-        <v>18</v>
+      <c r="J66" s="11">
+        <v>-1811460</v>
       </c>
       <c r="K66" s="11">
-        <v>-1811460</v>
+        <v>-2161333</v>
       </c>
       <c r="L66" s="11">
-        <v>-2161333</v>
+        <v>-2059409</v>
       </c>
       <c r="M66" s="11">
-        <v>-2059409</v>
+        <v>-2249416</v>
       </c>
       <c r="N66" s="11">
-        <v>-2249416</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1696857</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>-572811</v>
+        <v>-747442</v>
       </c>
       <c r="F67" s="15">
-        <v>-747442</v>
+        <v>-532770</v>
       </c>
       <c r="G67" s="15">
-        <v>-532770</v>
+        <v>-2433500</v>
       </c>
       <c r="H67" s="15">
-        <v>-2433500</v>
+        <v>-1429020</v>
       </c>
       <c r="I67" s="15">
-        <v>-1429020</v>
+        <v>-1767330</v>
       </c>
       <c r="J67" s="15">
-        <v>-1767330</v>
+        <v>-1811460</v>
       </c>
       <c r="K67" s="15">
-        <v>-1811460</v>
+        <v>-2161333</v>
       </c>
       <c r="L67" s="15">
-        <v>-2161333</v>
+        <v>-2059409</v>
       </c>
       <c r="M67" s="15">
-        <v>-2059409</v>
+        <v>-2249416</v>
       </c>
       <c r="N67" s="15">
-        <v>-2249416</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1696857</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>45</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>24</v>
       </c>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>-9336</v>
+        <v>9336</v>
       </c>
       <c r="F69" s="11">
-        <v>9336</v>
+        <v>-197898</v>
       </c>
       <c r="G69" s="11">
-        <v>-197898</v>
-      </c>
-      <c r="H69" s="11">
         <v>-49266</v>
       </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I69" s="11" t="s">
         <v>18</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>19</v>
       </c>
@@ -2660,18 +2660,18 @@
       <c r="F70" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="13" t="s">
-        <v>18</v>
+      <c r="G70" s="13">
+        <v>-49266</v>
       </c>
       <c r="H70" s="13">
-        <v>-49266</v>
+        <v>-119613</v>
       </c>
       <c r="I70" s="13">
-        <v>-119613</v>
-      </c>
-      <c r="J70" s="13">
         <v>-63391</v>
       </c>
+      <c r="J70" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K70" s="13" t="s">
         <v>18</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>20</v>
       </c>
@@ -2708,60 +2708,60 @@
       <c r="I71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>18</v>
+      <c r="J71" s="11">
+        <v>-119841</v>
       </c>
       <c r="K71" s="11">
-        <v>-119841</v>
+        <v>-322958</v>
       </c>
       <c r="L71" s="11">
-        <v>-322958</v>
+        <v>-110759</v>
       </c>
       <c r="M71" s="11">
-        <v>-110759</v>
+        <v>98446</v>
       </c>
       <c r="N71" s="11">
-        <v>98446</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-279450</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>-9336</v>
+        <v>9336</v>
       </c>
       <c r="F72" s="15">
-        <v>9336</v>
+        <v>-197898</v>
       </c>
       <c r="G72" s="15">
-        <v>-197898</v>
+        <v>-98532</v>
       </c>
       <c r="H72" s="15">
-        <v>-98532</v>
+        <v>-119613</v>
       </c>
       <c r="I72" s="15">
-        <v>-119613</v>
+        <v>-63391</v>
       </c>
       <c r="J72" s="15">
-        <v>-63391</v>
+        <v>-119841</v>
       </c>
       <c r="K72" s="15">
-        <v>-119841</v>
+        <v>-322958</v>
       </c>
       <c r="L72" s="15">
-        <v>-322958</v>
+        <v>-110759</v>
       </c>
       <c r="M72" s="15">
-        <v>-110759</v>
+        <v>98446</v>
       </c>
       <c r="N72" s="15">
-        <v>98446</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-279450</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>47</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>48</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>28</v>
       </c>
@@ -2829,8 +2829,8 @@
       <c r="F75" s="15">
         <v>0</v>
       </c>
-      <c r="G75" s="15">
-        <v>0</v>
+      <c r="G75" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>18</v>
@@ -2854,7 +2854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>30</v>
       </c>
@@ -2868,20 +2868,20 @@
       <c r="F76" s="19">
         <v>0</v>
       </c>
-      <c r="G76" s="19">
-        <v>0</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>18</v>
+      <c r="G76" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="19">
+        <v>0</v>
       </c>
       <c r="I76" s="19">
         <v>0</v>
       </c>
-      <c r="J76" s="19">
-        <v>0</v>
-      </c>
-      <c r="K76" s="19" t="s">
-        <v>18</v>
+      <c r="J76" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="19">
+        <v>0</v>
       </c>
       <c r="L76" s="19">
         <v>0</v>
@@ -2893,44 +2893,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>-582147</v>
+        <v>-738106</v>
       </c>
       <c r="F77" s="15">
-        <v>-738106</v>
+        <v>-730668</v>
       </c>
       <c r="G77" s="15">
-        <v>-730668</v>
+        <v>-2532032</v>
       </c>
       <c r="H77" s="15">
-        <v>-2532032</v>
+        <v>-1548633</v>
       </c>
       <c r="I77" s="15">
-        <v>-1548633</v>
+        <v>-1830721</v>
       </c>
       <c r="J77" s="15">
-        <v>-1830721</v>
+        <v>-1931301</v>
       </c>
       <c r="K77" s="15">
-        <v>-1931301</v>
+        <v>-2484291</v>
       </c>
       <c r="L77" s="15">
-        <v>-2484291</v>
+        <v>-2170168</v>
       </c>
       <c r="M77" s="15">
-        <v>-2170168</v>
+        <v>-2150970</v>
       </c>
       <c r="N77" s="15">
-        <v>-2150970</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1976307</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2945,7 +2945,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2960,7 +2960,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2975,7 +2975,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>49</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3027,7 +3027,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>50</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
@@ -3053,17 +3053,17 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>219462</v>
+        <v>53639</v>
       </c>
       <c r="F84" s="11">
-        <v>53639</v>
+        <v>401250</v>
       </c>
       <c r="G84" s="11">
-        <v>401250</v>
-      </c>
-      <c r="H84" s="11">
         <v>427507</v>
       </c>
+      <c r="H84" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I84" s="11" t="s">
         <v>18</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>19</v>
       </c>
@@ -3097,18 +3097,18 @@
       <c r="F85" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>18</v>
+      <c r="G85" s="13">
+        <v>427507</v>
       </c>
       <c r="H85" s="13">
-        <v>427507</v>
+        <v>479823</v>
       </c>
       <c r="I85" s="13">
-        <v>479823</v>
-      </c>
-      <c r="J85" s="13">
         <v>459986</v>
       </c>
+      <c r="J85" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K85" s="13" t="s">
         <v>18</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>20</v>
       </c>
@@ -3145,60 +3145,60 @@
       <c r="I86" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J86" s="11" t="s">
-        <v>18</v>
+      <c r="J86" s="11">
+        <v>249839</v>
       </c>
       <c r="K86" s="11">
-        <v>249839</v>
+        <v>651119</v>
       </c>
       <c r="L86" s="11">
-        <v>651119</v>
+        <v>592424</v>
       </c>
       <c r="M86" s="11">
-        <v>592424</v>
+        <v>388334</v>
       </c>
       <c r="N86" s="11">
-        <v>388334</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>586785</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>219462</v>
+        <v>53639</v>
       </c>
       <c r="F87" s="15">
-        <v>53639</v>
+        <v>401250</v>
       </c>
       <c r="G87" s="15">
-        <v>401250</v>
+        <v>855014</v>
       </c>
       <c r="H87" s="15">
-        <v>855014</v>
+        <v>479823</v>
       </c>
       <c r="I87" s="15">
-        <v>479823</v>
+        <v>459986</v>
       </c>
       <c r="J87" s="15">
-        <v>459986</v>
+        <v>249839</v>
       </c>
       <c r="K87" s="15">
-        <v>249839</v>
+        <v>651119</v>
       </c>
       <c r="L87" s="15">
-        <v>651119</v>
+        <v>592424</v>
       </c>
       <c r="M87" s="15">
-        <v>592424</v>
+        <v>388334</v>
       </c>
       <c r="N87" s="15">
-        <v>388334</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>586785</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>52</v>
       </c>
@@ -3215,7 +3215,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>24</v>
       </c>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>3672</v>
+        <v>182210</v>
       </c>
       <c r="F89" s="11">
-        <v>182210</v>
+        <v>-112236</v>
       </c>
       <c r="G89" s="11">
-        <v>-112236</v>
-      </c>
-      <c r="H89" s="11">
         <v>27914</v>
       </c>
+      <c r="H89" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="I89" s="11" t="s">
         <v>18</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>19</v>
       </c>
@@ -3268,18 +3268,18 @@
       <c r="F90" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G90" s="13" t="s">
-        <v>18</v>
+      <c r="G90" s="13">
+        <v>27914</v>
       </c>
       <c r="H90" s="13">
-        <v>27914</v>
+        <v>28104</v>
       </c>
       <c r="I90" s="13">
-        <v>28104</v>
-      </c>
-      <c r="J90" s="13">
         <v>4537</v>
       </c>
+      <c r="J90" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K90" s="13" t="s">
         <v>18</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>20</v>
       </c>
@@ -3316,60 +3316,60 @@
       <c r="I91" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>18</v>
+      <c r="J91" s="11">
+        <v>55748</v>
       </c>
       <c r="K91" s="11">
-        <v>55748</v>
+        <v>2889</v>
       </c>
       <c r="L91" s="11">
-        <v>2889</v>
+        <v>24549</v>
       </c>
       <c r="M91" s="11">
-        <v>24549</v>
+        <v>136337</v>
       </c>
       <c r="N91" s="11">
-        <v>136337</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-132618</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>3672</v>
+        <v>182210</v>
       </c>
       <c r="F92" s="15">
-        <v>182210</v>
+        <v>-112236</v>
       </c>
       <c r="G92" s="15">
-        <v>-112236</v>
+        <v>55828</v>
       </c>
       <c r="H92" s="15">
-        <v>55828</v>
+        <v>28104</v>
       </c>
       <c r="I92" s="15">
-        <v>28104</v>
+        <v>4537</v>
       </c>
       <c r="J92" s="15">
-        <v>4537</v>
+        <v>55748</v>
       </c>
       <c r="K92" s="15">
-        <v>55748</v>
+        <v>2889</v>
       </c>
       <c r="L92" s="15">
-        <v>2889</v>
+        <v>24549</v>
       </c>
       <c r="M92" s="15">
-        <v>24549</v>
+        <v>136337</v>
       </c>
       <c r="N92" s="15">
-        <v>136337</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-132618</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>54</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>55</v>
       </c>
@@ -3423,41 +3423,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>223134</v>
+        <v>235849</v>
       </c>
       <c r="F95" s="15">
-        <v>235849</v>
+        <v>289014</v>
       </c>
       <c r="G95" s="15">
-        <v>289014</v>
+        <v>910842</v>
       </c>
       <c r="H95" s="15">
-        <v>910842</v>
+        <v>507927</v>
       </c>
       <c r="I95" s="15">
-        <v>507927</v>
+        <v>464523</v>
       </c>
       <c r="J95" s="15">
-        <v>464523</v>
+        <v>305587</v>
       </c>
       <c r="K95" s="15">
-        <v>305587</v>
+        <v>654008</v>
       </c>
       <c r="L95" s="15">
-        <v>654008</v>
+        <v>616973</v>
       </c>
       <c r="M95" s="15">
-        <v>616973</v>
+        <v>524671</v>
       </c>
       <c r="N95" s="15">
-        <v>524671</v>
+        <v>454167</v>
       </c>
     </row>
   </sheetData>
